--- a/tests/integration_test_files/annotations_and_abbreviations.xlsx
+++ b/tests/integration_test_files/annotations_and_abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8F59F1-A123-5A43-B6C8-A066E0F5F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08972F1F-F2C4-C441-A330-F3609729866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="1240" windowWidth="58640" windowHeight="23700" firstSheet="9" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41460" yWindow="2980" windowWidth="58640" windowHeight="23700" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,17 @@
     <sheet name="studyDesignElements" sheetId="22" r:id="rId22"/>
     <sheet name="dictionaries" sheetId="23" r:id="rId23"/>
     <sheet name="somethingElse" sheetId="24" r:id="rId24"/>
-    <sheet name="spareFormat" sheetId="25" r:id="rId25"/>
-    <sheet name="configuration" sheetId="26" r:id="rId26"/>
-    <sheet name="documentContent" sheetId="27" r:id="rId27"/>
+    <sheet name="annotations" sheetId="28" r:id="rId25"/>
+    <sheet name="spareFormat" sheetId="25" r:id="rId26"/>
+    <sheet name="configuration" sheetId="26" r:id="rId27"/>
+    <sheet name="documentContent" sheetId="27" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1246">
   <si>
     <t>name</t>
   </si>
@@ -3786,6 +3787,27 @@
   </si>
   <si>
     <t>NC_331</t>
+  </si>
+  <si>
+    <t>ANN_01</t>
+  </si>
+  <si>
+    <t>A first note</t>
+  </si>
+  <si>
+    <t>ANN_02</t>
+  </si>
+  <si>
+    <t>A second note</t>
+  </si>
+  <si>
+    <t>ANN_03</t>
+  </si>
+  <si>
+    <t>Demographics activity note</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -3888,7 +3910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4023,13 +4045,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4048,12 +4063,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6005,10 +6026,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6020,7 +6041,7 @@
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6036,31 +6057,37 @@
       <c r="E1" s="21" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="21" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>210</v>
       </c>
@@ -6068,7 +6095,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>211</v>
       </c>
@@ -6076,37 +6103,37 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>218</v>
       </c>
@@ -6114,12 +6141,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>221</v>
       </c>
@@ -7903,37 +7930,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="59"/>
-    <col min="2" max="2" width="14.5" style="59" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="53" style="60" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="53" style="56" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="53" t="s">
         <v>838</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="53" t="s">
         <v>839</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="55" t="s">
         <v>840</v>
       </c>
     </row>
@@ -7944,13 +7970,13 @@
       <c r="B2" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>841</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>841</v>
       </c>
       <c r="F2" s="39" t="s">
@@ -7964,13 +7990,13 @@
       <c r="B3" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -7984,13 +8010,13 @@
       <c r="B4" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="39" t="s">
@@ -8004,13 +8030,13 @@
       <c r="B5" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -8024,13 +8050,13 @@
       <c r="B6" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="39" t="s">
@@ -8044,13 +8070,13 @@
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -8064,13 +8090,13 @@
       <c r="B8" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="39" t="s">
@@ -8084,13 +8110,13 @@
       <c r="B9" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -8104,13 +8130,13 @@
       <c r="B10" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="39" t="s">
@@ -8124,13 +8150,13 @@
       <c r="B11" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -8144,13 +8170,13 @@
       <c r="B12" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="39" t="s">
@@ -8164,13 +8190,13 @@
       <c r="B13" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -8184,13 +8210,13 @@
       <c r="B14" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="39" t="s">
@@ -8204,13 +8230,13 @@
       <c r="B15" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="14" t="s">
@@ -8224,13 +8250,13 @@
       <c r="B16" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="39" t="s">
@@ -8244,13 +8270,13 @@
       <c r="B17" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="14" t="s">
@@ -8264,13 +8290,13 @@
       <c r="B18" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="39" t="s">
@@ -8284,13 +8310,13 @@
       <c r="B19" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="14" t="s">
@@ -8304,13 +8330,13 @@
       <c r="B20" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="39" t="s">
@@ -8324,13 +8350,13 @@
       <c r="B21" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="14" t="s">
@@ -8344,13 +8370,13 @@
       <c r="B22" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="39" t="s">
@@ -8364,13 +8390,13 @@
       <c r="B23" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="14" t="s">
@@ -8384,13 +8410,13 @@
       <c r="B24" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="39" t="s">
@@ -8404,13 +8430,13 @@
       <c r="B25" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -8424,13 +8450,13 @@
       <c r="B26" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="39" t="s">
@@ -8444,13 +8470,13 @@
       <c r="B27" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="14" t="s">
@@ -8464,13 +8490,13 @@
       <c r="B28" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="39" t="s">
@@ -8484,13 +8510,13 @@
       <c r="B29" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="14" t="s">
@@ -8504,13 +8530,13 @@
       <c r="B30" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="39" t="s">
@@ -8524,13 +8550,13 @@
       <c r="B31" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="14" t="s">
@@ -8544,13 +8570,13 @@
       <c r="B32" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="39" t="s">
@@ -8564,13 +8590,13 @@
       <c r="B33" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="14" t="s">
@@ -8584,13 +8610,13 @@
       <c r="B34" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="39" t="s">
@@ -8604,13 +8630,13 @@
       <c r="B35" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="14" t="s">
@@ -8624,13 +8650,13 @@
       <c r="B36" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="39" t="s">
@@ -8644,13 +8670,13 @@
       <c r="B37" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="14" t="s">
@@ -8664,13 +8690,13 @@
       <c r="B38" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="39" t="s">
@@ -8684,13 +8710,13 @@
       <c r="B39" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="14" t="s">
@@ -8704,13 +8730,13 @@
       <c r="B40" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="39" t="s">
@@ -8724,13 +8750,13 @@
       <c r="B41" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="14" t="s">
@@ -8744,13 +8770,13 @@
       <c r="B42" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="39" t="s">
@@ -8764,13 +8790,13 @@
       <c r="B43" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="14" t="s">
@@ -8784,13 +8810,13 @@
       <c r="B44" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="39" t="s">
@@ -8804,13 +8830,13 @@
       <c r="B45" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="14" t="s">
@@ -8824,13 +8850,13 @@
       <c r="B46" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="39" t="s">
@@ -8844,13 +8870,13 @@
       <c r="B47" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="14" t="s">
@@ -8864,13 +8890,13 @@
       <c r="B48" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F48" s="39" t="s">
@@ -8884,13 +8910,13 @@
       <c r="B49" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F49" s="14" t="s">
@@ -8904,13 +8930,13 @@
       <c r="B50" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="39" t="s">
@@ -8924,13 +8950,13 @@
       <c r="B51" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="14" t="s">
@@ -8944,13 +8970,13 @@
       <c r="B52" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F52" s="39" t="s">
@@ -8964,33 +8990,33 @@
       <c r="B53" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>1159</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="39" t="s">
@@ -9004,13 +9030,13 @@
       <c r="B55" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="14" t="s">
@@ -9024,13 +9050,13 @@
       <c r="B56" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="39" t="s">
@@ -9044,13 +9070,13 @@
       <c r="B57" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="E57" s="53" t="s">
+      <c r="E57" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F57" s="14" t="s">
@@ -9064,13 +9090,13 @@
       <c r="B58" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F58" s="39" t="s">
@@ -9084,13 +9110,13 @@
       <c r="B59" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F59" s="14" t="s">
@@ -9104,13 +9130,13 @@
       <c r="B60" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F60" s="39" t="s">
@@ -9124,13 +9150,13 @@
       <c r="B61" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="E61" s="53" t="s">
+      <c r="E61" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="14" t="s">
@@ -9144,13 +9170,13 @@
       <c r="B62" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F62" s="39" t="s">
@@ -9164,13 +9190,13 @@
       <c r="B63" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="E63" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F63" s="14" t="s">
@@ -9184,13 +9210,13 @@
       <c r="B64" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="E64" s="53" t="s">
+      <c r="E64" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F64" s="39" t="s">
@@ -9204,13 +9230,13 @@
       <c r="B65" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F65" s="14" t="s">
@@ -9224,13 +9250,13 @@
       <c r="B66" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F66" s="39" t="s">
@@ -9244,13 +9270,13 @@
       <c r="B67" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F67" s="14" t="s">
@@ -9264,13 +9290,13 @@
       <c r="B68" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F68" s="39" t="s">
@@ -9284,13 +9310,13 @@
       <c r="B69" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="E69" s="53" t="s">
+      <c r="E69" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="14" t="s">
@@ -9304,13 +9330,13 @@
       <c r="B70" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="E70" s="53" t="s">
+      <c r="E70" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F70" s="39" t="s">
@@ -9324,13 +9350,13 @@
       <c r="B71" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E71" s="53" t="s">
+      <c r="E71" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F71" s="14" t="s">
@@ -9344,13 +9370,13 @@
       <c r="B72" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F72" s="39" t="s">
@@ -9364,13 +9390,13 @@
       <c r="B73" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="E73" s="53" t="s">
+      <c r="E73" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F73" s="14" t="s">
@@ -9384,13 +9410,13 @@
       <c r="B74" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="E74" s="53" t="s">
+      <c r="E74" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F74" s="39" t="s">
@@ -9404,13 +9430,13 @@
       <c r="B75" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E75" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F75" s="14" t="s">
@@ -9424,13 +9450,13 @@
       <c r="B76" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E76" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F76" s="39" t="s">
@@ -9444,13 +9470,13 @@
       <c r="B77" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="E77" s="53" t="s">
+      <c r="E77" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="14" t="s">
@@ -9464,13 +9490,13 @@
       <c r="B78" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="E78" s="53" t="s">
+      <c r="E78" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F78" s="39" t="s">
@@ -9484,13 +9510,13 @@
       <c r="B79" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="E79" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F79" s="14" t="s">
@@ -9504,13 +9530,13 @@
       <c r="B80" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="E80" s="53" t="s">
+      <c r="E80" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F80" s="39" t="s">
@@ -9524,13 +9550,13 @@
       <c r="B81" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="E81" s="53" t="s">
+      <c r="E81" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F81" s="14" t="s">
@@ -9544,13 +9570,13 @@
       <c r="B82" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="E82" s="53" t="s">
+      <c r="E82" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F82" s="39" t="s">
@@ -9564,13 +9590,13 @@
       <c r="B83" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E83" s="53" t="s">
+      <c r="E83" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F83" s="14" t="s">
@@ -9584,13 +9610,13 @@
       <c r="B84" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="E84" s="53" t="s">
+      <c r="E84" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F84" s="39" t="s">
@@ -9604,13 +9630,13 @@
       <c r="B85" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="E85" s="53" t="s">
+      <c r="E85" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="14" t="s">
@@ -9624,13 +9650,13 @@
       <c r="B86" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="E86" s="53" t="s">
+      <c r="E86" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F86" s="39" t="s">
@@ -9644,13 +9670,13 @@
       <c r="B87" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="E87" s="53" t="s">
+      <c r="E87" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F87" s="14" t="s">
@@ -9664,13 +9690,13 @@
       <c r="B88" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="E88" s="53" t="s">
+      <c r="E88" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="39" t="s">
@@ -9684,13 +9710,13 @@
       <c r="B89" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="E89" s="53" t="s">
+      <c r="E89" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F89" s="14" t="s">
@@ -9704,13 +9730,13 @@
       <c r="B90" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="E90" s="53" t="s">
+      <c r="E90" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F90" s="39" t="s">
@@ -9724,13 +9750,13 @@
       <c r="B91" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="E91" s="53" t="s">
+      <c r="E91" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F91" s="14" t="s">
@@ -9744,13 +9770,13 @@
       <c r="B92" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="E92" s="53" t="s">
+      <c r="E92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F92" s="39" t="s">
@@ -9764,13 +9790,13 @@
       <c r="B93" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="E93" s="53" t="s">
+      <c r="E93" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F93" s="14" t="s">
@@ -9784,13 +9810,13 @@
       <c r="B94" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="E94" s="53" t="s">
+      <c r="E94" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F94" s="39" t="s">
@@ -9804,13 +9830,13 @@
       <c r="B95" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="E95" s="53" t="s">
+      <c r="E95" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F95" s="14" t="s">
@@ -9824,13 +9850,13 @@
       <c r="B96" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="E96" s="53" t="s">
+      <c r="E96" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F96" s="39" t="s">
@@ -9844,13 +9870,13 @@
       <c r="B97" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="E97" s="53" t="s">
+      <c r="E97" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F97" s="14" t="s">
@@ -9864,13 +9890,13 @@
       <c r="B98" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="C98" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="E98" s="53" t="s">
+      <c r="E98" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F98" s="39" t="s">
@@ -9884,13 +9910,13 @@
       <c r="B99" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C99" s="53" t="s">
+      <c r="C99" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="E99" s="53" t="s">
+      <c r="E99" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F99" s="14" t="s">
@@ -9904,13 +9930,13 @@
       <c r="B100" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="E100" s="53" t="s">
+      <c r="E100" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F100" s="39" t="s">
@@ -9924,13 +9950,13 @@
       <c r="B101" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="E101" s="53" t="s">
+      <c r="E101" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F101" s="14" t="s">
@@ -9944,13 +9970,13 @@
       <c r="B102" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="E102" s="53" t="s">
+      <c r="E102" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F102" s="39" t="s">
@@ -9964,13 +9990,13 @@
       <c r="B103" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="E103" s="53" t="s">
+      <c r="E103" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F103" s="14" t="s">
@@ -9984,13 +10010,13 @@
       <c r="B104" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="E104" s="53" t="s">
+      <c r="E104" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="39" t="s">
@@ -10004,13 +10030,13 @@
       <c r="B105" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="E105" s="53" t="s">
+      <c r="E105" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F105" s="14" t="s">
@@ -10024,13 +10050,13 @@
       <c r="B106" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="C106" s="53" t="s">
+      <c r="C106" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="E106" s="53" t="s">
+      <c r="E106" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F106" s="39" t="s">
@@ -10044,13 +10070,13 @@
       <c r="B107" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="E107" s="53" t="s">
+      <c r="E107" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F107" s="14" t="s">
@@ -10064,13 +10090,13 @@
       <c r="B108" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C108" s="53" t="s">
+      <c r="C108" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="E108" s="53" t="s">
+      <c r="E108" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F108" s="39" t="s">
@@ -10084,13 +10110,13 @@
       <c r="B109" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="E109" s="53" t="s">
+      <c r="E109" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F109" s="14" t="s">
@@ -10104,13 +10130,13 @@
       <c r="B110" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="C110" s="53" t="s">
+      <c r="C110" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="E110" s="53" t="s">
+      <c r="E110" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F110" s="39" t="s">
@@ -10124,13 +10150,13 @@
       <c r="B111" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="E111" s="53" t="s">
+      <c r="E111" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F111" s="14" t="s">
@@ -10144,13 +10170,13 @@
       <c r="B112" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="C112" s="53" t="s">
+      <c r="C112" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="E112" s="53" t="s">
+      <c r="E112" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F112" s="39" t="s">
@@ -10164,13 +10190,13 @@
       <c r="B113" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="C113" s="53" t="s">
+      <c r="C113" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="E113" s="53" t="s">
+      <c r="E113" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F113" s="14" t="s">
@@ -10184,13 +10210,13 @@
       <c r="B114" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="E114" s="53" t="s">
+      <c r="E114" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F114" s="39" t="s">
@@ -10204,13 +10230,13 @@
       <c r="B115" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="C115" s="53" t="s">
+      <c r="C115" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E115" s="53" t="s">
+      <c r="E115" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F115" s="14" t="s">
@@ -10224,13 +10250,13 @@
       <c r="B116" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="C116" s="53" t="s">
+      <c r="C116" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="E116" s="53" t="s">
+      <c r="E116" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F116" s="39" t="s">
@@ -10244,13 +10270,13 @@
       <c r="B117" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="C117" s="53" t="s">
+      <c r="C117" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="E117" s="53" t="s">
+      <c r="E117" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F117" s="14" t="s">
@@ -10264,13 +10290,13 @@
       <c r="B118" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="E118" s="53" t="s">
+      <c r="E118" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F118" s="39" t="s">
@@ -10284,13 +10310,13 @@
       <c r="B119" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="C119" s="53" t="s">
+      <c r="C119" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="E119" s="53" t="s">
+      <c r="E119" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F119" s="14" t="s">
@@ -10304,33 +10330,33 @@
       <c r="B120" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="E120" s="53" t="s">
+      <c r="E120" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F120" s="39" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
         <v>1226</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F121" s="14" t="s">
@@ -10344,13 +10370,13 @@
       <c r="B122" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="C122" s="53" t="s">
+      <c r="C122" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E122" s="53" t="s">
+      <c r="E122" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F122" s="39" t="s">
@@ -10364,13 +10390,13 @@
       <c r="B123" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="C123" s="53" t="s">
+      <c r="C123" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="E123" s="53" t="s">
+      <c r="E123" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F123" s="14" t="s">
@@ -10384,13 +10410,13 @@
       <c r="B124" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="C124" s="53" t="s">
+      <c r="C124" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="E124" s="53" t="s">
+      <c r="E124" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F124" s="39" t="s">
@@ -10404,13 +10430,13 @@
       <c r="B125" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C125" s="53" t="s">
+      <c r="C125" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="E125" s="53" t="s">
+      <c r="E125" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F125" s="14" t="s">
@@ -10424,13 +10450,13 @@
       <c r="B126" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="C126" s="53" t="s">
+      <c r="C126" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="E126" s="53" t="s">
+      <c r="E126" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F126" s="39" t="s">
@@ -10444,13 +10470,13 @@
       <c r="B127" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="C127" s="53" t="s">
+      <c r="C127" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="E127" s="53" t="s">
+      <c r="E127" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F127" s="14" t="s">
@@ -10464,13 +10490,13 @@
       <c r="B128" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="C128" s="53" t="s">
+      <c r="C128" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="E128" s="53" t="s">
+      <c r="E128" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F128" s="39" t="s">
@@ -10484,13 +10510,13 @@
       <c r="B129" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="C129" s="53" t="s">
+      <c r="C129" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="E129" s="53" t="s">
+      <c r="E129" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F129" s="14" t="s">
@@ -10504,13 +10530,13 @@
       <c r="B130" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="C130" s="53" t="s">
+      <c r="C130" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="E130" s="53" t="s">
+      <c r="E130" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F130" s="39" t="s">
@@ -10524,13 +10550,13 @@
       <c r="B131" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="C131" s="53" t="s">
+      <c r="C131" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E131" s="53" t="s">
+      <c r="E131" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F131" s="14" t="s">
@@ -10544,13 +10570,13 @@
       <c r="B132" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C132" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="E132" s="53" t="s">
+      <c r="E132" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F132" s="39" t="s">
@@ -10564,13 +10590,13 @@
       <c r="B133" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="C133" s="53" t="s">
+      <c r="C133" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="E133" s="53" t="s">
+      <c r="E133" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F133" s="14" t="s">
@@ -10580,13 +10606,13 @@
     <row r="134" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="54"/>
+      <c r="E134" s="51"/>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="54"/>
+      <c r="E135" s="51"/>
       <c r="F135" s="6"/>
     </row>
   </sheetData>
@@ -10597,6 +10623,59 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFABB680-8BAD-E04C-BA6A-5C36BD53129A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:F133"/>
   <sheetViews>
@@ -10609,7 +10688,7 @@
     <col min="2" max="2" width="14.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10639,13 +10718,13 @@
       <c r="B2" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>841</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>841</v>
       </c>
       <c r="F2" t="s">
@@ -10659,13 +10738,13 @@
       <c r="B3" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
@@ -10679,13 +10758,13 @@
       <c r="B4" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
@@ -10699,13 +10778,13 @@
       <c r="B5" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
@@ -10719,13 +10798,13 @@
       <c r="B6" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
@@ -10739,13 +10818,13 @@
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
@@ -10759,13 +10838,13 @@
       <c r="B8" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
@@ -10779,13 +10858,13 @@
       <c r="B9" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
@@ -10799,13 +10878,13 @@
       <c r="B10" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
@@ -10819,13 +10898,13 @@
       <c r="B11" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
@@ -10839,13 +10918,13 @@
       <c r="B12" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
@@ -10859,13 +10938,13 @@
       <c r="B13" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
@@ -10879,13 +10958,13 @@
       <c r="B14" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
@@ -10899,13 +10978,13 @@
       <c r="B15" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
@@ -10919,13 +10998,13 @@
       <c r="B16" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
@@ -10939,13 +11018,13 @@
       <c r="B17" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
@@ -10959,13 +11038,13 @@
       <c r="B18" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
@@ -10979,13 +11058,13 @@
       <c r="B19" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
@@ -10999,13 +11078,13 @@
       <c r="B20" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
@@ -11019,13 +11098,13 @@
       <c r="B21" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
@@ -11039,13 +11118,13 @@
       <c r="B22" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
@@ -11059,13 +11138,13 @@
       <c r="B23" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
@@ -11079,13 +11158,13 @@
       <c r="B24" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
@@ -11099,13 +11178,13 @@
       <c r="B25" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
@@ -11119,13 +11198,13 @@
       <c r="B26" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
@@ -11139,13 +11218,13 @@
       <c r="B27" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
@@ -11159,13 +11238,13 @@
       <c r="B28" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
@@ -11179,13 +11258,13 @@
       <c r="B29" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
@@ -11199,13 +11278,13 @@
       <c r="B30" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
@@ -11219,13 +11298,13 @@
       <c r="B31" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
@@ -11239,13 +11318,13 @@
       <c r="B32" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
@@ -11259,13 +11338,13 @@
       <c r="B33" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
@@ -11279,13 +11358,13 @@
       <c r="B34" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
@@ -11299,13 +11378,13 @@
       <c r="B35" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
@@ -11319,13 +11398,13 @@
       <c r="B36" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
@@ -11339,13 +11418,13 @@
       <c r="B37" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
@@ -11359,13 +11438,13 @@
       <c r="B38" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
@@ -11379,13 +11458,13 @@
       <c r="B39" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
@@ -11399,13 +11478,13 @@
       <c r="B40" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
@@ -11419,13 +11498,13 @@
       <c r="B41" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
@@ -11439,13 +11518,13 @@
       <c r="B42" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
@@ -11459,13 +11538,13 @@
       <c r="B43" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
@@ -11479,13 +11558,13 @@
       <c r="B44" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
@@ -11499,13 +11578,13 @@
       <c r="B45" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
@@ -11519,13 +11598,13 @@
       <c r="B46" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
@@ -11539,13 +11618,13 @@
       <c r="B47" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
@@ -11559,13 +11638,13 @@
       <c r="B48" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
@@ -11579,13 +11658,13 @@
       <c r="B49" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
@@ -11599,13 +11678,13 @@
       <c r="B50" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
@@ -11619,13 +11698,13 @@
       <c r="B51" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
@@ -11639,13 +11718,13 @@
       <c r="B52" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
@@ -11659,13 +11738,13 @@
       <c r="B53" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
@@ -11679,13 +11758,13 @@
       <c r="B54" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
@@ -11699,13 +11778,13 @@
       <c r="B55" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
@@ -11719,13 +11798,13 @@
       <c r="B56" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
@@ -11739,13 +11818,13 @@
       <c r="B57" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="E57" s="53" t="s">
+      <c r="E57" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
@@ -11759,13 +11838,13 @@
       <c r="B58" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
@@ -11779,13 +11858,13 @@
       <c r="B59" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
@@ -11799,13 +11878,13 @@
       <c r="B60" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
@@ -11819,13 +11898,13 @@
       <c r="B61" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="C61" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="E61" s="53" t="s">
+      <c r="E61" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
@@ -11839,13 +11918,13 @@
       <c r="B62" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E62" s="53" t="s">
+      <c r="E62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
@@ -11859,13 +11938,13 @@
       <c r="B63" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="E63" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
@@ -11879,13 +11958,13 @@
       <c r="B64" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="E64" s="53" t="s">
+      <c r="E64" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
@@ -11899,13 +11978,13 @@
       <c r="B65" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
@@ -11919,13 +11998,13 @@
       <c r="B66" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
@@ -11939,13 +12018,13 @@
       <c r="B67" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
@@ -11959,13 +12038,13 @@
       <c r="B68" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
@@ -11979,13 +12058,13 @@
       <c r="B69" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="E69" s="53" t="s">
+      <c r="E69" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
@@ -11999,13 +12078,13 @@
       <c r="B70" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="E70" s="53" t="s">
+      <c r="E70" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
@@ -12019,13 +12098,13 @@
       <c r="B71" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E71" s="53" t="s">
+      <c r="E71" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
@@ -12039,13 +12118,13 @@
       <c r="B72" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
@@ -12059,13 +12138,13 @@
       <c r="B73" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="E73" s="53" t="s">
+      <c r="E73" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
@@ -12079,13 +12158,13 @@
       <c r="B74" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="E74" s="53" t="s">
+      <c r="E74" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
@@ -12099,13 +12178,13 @@
       <c r="B75" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E75" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
@@ -12119,13 +12198,13 @@
       <c r="B76" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E76" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
@@ -12139,13 +12218,13 @@
       <c r="B77" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="E77" s="53" t="s">
+      <c r="E77" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
@@ -12159,13 +12238,13 @@
       <c r="B78" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="E78" s="53" t="s">
+      <c r="E78" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
@@ -12179,13 +12258,13 @@
       <c r="B79" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="E79" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
@@ -12199,13 +12278,13 @@
       <c r="B80" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="E80" s="53" t="s">
+      <c r="E80" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
@@ -12219,13 +12298,13 @@
       <c r="B81" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C81" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="E81" s="53" t="s">
+      <c r="E81" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
@@ -12239,13 +12318,13 @@
       <c r="B82" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="E82" s="53" t="s">
+      <c r="E82" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
@@ -12259,13 +12338,13 @@
       <c r="B83" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E83" s="53" t="s">
+      <c r="E83" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
@@ -12279,13 +12358,13 @@
       <c r="B84" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="E84" s="53" t="s">
+      <c r="E84" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
@@ -12299,13 +12378,13 @@
       <c r="B85" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="E85" s="53" t="s">
+      <c r="E85" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
@@ -12319,13 +12398,13 @@
       <c r="B86" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="E86" s="53" t="s">
+      <c r="E86" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
@@ -12339,13 +12418,13 @@
       <c r="B87" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="C87" s="53" t="s">
+      <c r="C87" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="E87" s="53" t="s">
+      <c r="E87" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
@@ -12359,13 +12438,13 @@
       <c r="B88" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="E88" s="53" t="s">
+      <c r="E88" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
@@ -12379,13 +12458,13 @@
       <c r="B89" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="E89" s="53" t="s">
+      <c r="E89" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
@@ -12399,13 +12478,13 @@
       <c r="B90" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="E90" s="53" t="s">
+      <c r="E90" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
@@ -12419,13 +12498,13 @@
       <c r="B91" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="E91" s="53" t="s">
+      <c r="E91" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
@@ -12439,13 +12518,13 @@
       <c r="B92" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="E92" s="53" t="s">
+      <c r="E92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
@@ -12459,13 +12538,13 @@
       <c r="B93" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="C93" s="53" t="s">
+      <c r="C93" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="E93" s="53" t="s">
+      <c r="E93" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
@@ -12479,13 +12558,13 @@
       <c r="B94" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="E94" s="53" t="s">
+      <c r="E94" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
@@ -12499,13 +12578,13 @@
       <c r="B95" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="E95" s="53" t="s">
+      <c r="E95" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
@@ -12519,13 +12598,13 @@
       <c r="B96" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="E96" s="53" t="s">
+      <c r="E96" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
@@ -12539,13 +12618,13 @@
       <c r="B97" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="E97" s="53" t="s">
+      <c r="E97" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
@@ -12559,13 +12638,13 @@
       <c r="B98" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="C98" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="E98" s="53" t="s">
+      <c r="E98" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
@@ -12579,13 +12658,13 @@
       <c r="B99" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C99" s="53" t="s">
+      <c r="C99" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="E99" s="53" t="s">
+      <c r="E99" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
@@ -12599,13 +12678,13 @@
       <c r="B100" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="E100" s="53" t="s">
+      <c r="E100" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
@@ -12619,13 +12698,13 @@
       <c r="B101" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C101" s="53" t="s">
+      <c r="C101" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="E101" s="53" t="s">
+      <c r="E101" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
@@ -12639,13 +12718,13 @@
       <c r="B102" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="E102" s="53" t="s">
+      <c r="E102" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
@@ -12659,13 +12738,13 @@
       <c r="B103" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="E103" s="53" t="s">
+      <c r="E103" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
@@ -12679,13 +12758,13 @@
       <c r="B104" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="E104" s="53" t="s">
+      <c r="E104" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
@@ -12699,13 +12778,13 @@
       <c r="B105" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="E105" s="53" t="s">
+      <c r="E105" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
@@ -12719,13 +12798,13 @@
       <c r="B106" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="C106" s="53" t="s">
+      <c r="C106" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="E106" s="53" t="s">
+      <c r="E106" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
@@ -12739,13 +12818,13 @@
       <c r="B107" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="E107" s="53" t="s">
+      <c r="E107" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
@@ -12759,13 +12838,13 @@
       <c r="B108" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C108" s="53" t="s">
+      <c r="C108" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="E108" s="53" t="s">
+      <c r="E108" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
@@ -12779,13 +12858,13 @@
       <c r="B109" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="E109" s="53" t="s">
+      <c r="E109" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
@@ -12799,13 +12878,13 @@
       <c r="B110" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="C110" s="53" t="s">
+      <c r="C110" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="E110" s="53" t="s">
+      <c r="E110" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
@@ -12819,13 +12898,13 @@
       <c r="B111" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C111" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="E111" s="53" t="s">
+      <c r="E111" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
@@ -12839,13 +12918,13 @@
       <c r="B112" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="C112" s="53" t="s">
+      <c r="C112" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="E112" s="53" t="s">
+      <c r="E112" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
@@ -12859,13 +12938,13 @@
       <c r="B113" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="C113" s="53" t="s">
+      <c r="C113" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="E113" s="53" t="s">
+      <c r="E113" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
@@ -12879,13 +12958,13 @@
       <c r="B114" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="E114" s="53" t="s">
+      <c r="E114" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
@@ -12899,13 +12978,13 @@
       <c r="B115" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="C115" s="53" t="s">
+      <c r="C115" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="E115" s="53" t="s">
+      <c r="E115" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
@@ -12919,13 +12998,13 @@
       <c r="B116" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="C116" s="53" t="s">
+      <c r="C116" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="E116" s="53" t="s">
+      <c r="E116" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
@@ -12939,13 +13018,13 @@
       <c r="B117" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="C117" s="53" t="s">
+      <c r="C117" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="E117" s="53" t="s">
+      <c r="E117" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
@@ -12959,13 +13038,13 @@
       <c r="B118" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="C118" s="53" t="s">
+      <c r="C118" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="E118" s="53" t="s">
+      <c r="E118" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
@@ -12979,13 +13058,13 @@
       <c r="B119" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="C119" s="53" t="s">
+      <c r="C119" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="E119" s="53" t="s">
+      <c r="E119" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
@@ -12999,13 +13078,13 @@
       <c r="B120" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="E120" s="53" t="s">
+      <c r="E120" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
@@ -13019,13 +13098,13 @@
       <c r="B121" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="E121" s="53" t="s">
+      <c r="E121" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
@@ -13039,13 +13118,13 @@
       <c r="B122" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="C122" s="53" t="s">
+      <c r="C122" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="E122" s="53" t="s">
+      <c r="E122" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
@@ -13059,13 +13138,13 @@
       <c r="B123" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="C123" s="53" t="s">
+      <c r="C123" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="E123" s="53" t="s">
+      <c r="E123" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
@@ -13079,13 +13158,13 @@
       <c r="B124" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="C124" s="53" t="s">
+      <c r="C124" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="E124" s="53" t="s">
+      <c r="E124" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
@@ -13099,13 +13178,13 @@
       <c r="B125" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C125" s="53" t="s">
+      <c r="C125" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="E125" s="53" t="s">
+      <c r="E125" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
@@ -13119,13 +13198,13 @@
       <c r="B126" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="C126" s="53" t="s">
+      <c r="C126" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="E126" s="53" t="s">
+      <c r="E126" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
@@ -13139,13 +13218,13 @@
       <c r="B127" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="C127" s="53" t="s">
+      <c r="C127" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="E127" s="53" t="s">
+      <c r="E127" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
@@ -13159,13 +13238,13 @@
       <c r="B128" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="C128" s="53" t="s">
+      <c r="C128" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="E128" s="53" t="s">
+      <c r="E128" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
@@ -13179,13 +13258,13 @@
       <c r="B129" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="C129" s="53" t="s">
+      <c r="C129" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="E129" s="53" t="s">
+      <c r="E129" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
@@ -13199,13 +13278,13 @@
       <c r="B130" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="C130" s="53" t="s">
+      <c r="C130" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="E130" s="53" t="s">
+      <c r="E130" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
@@ -13219,13 +13298,13 @@
       <c r="B131" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="C131" s="53" t="s">
+      <c r="C131" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E131" s="53" t="s">
+      <c r="E131" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
@@ -13239,13 +13318,13 @@
       <c r="B132" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C132" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="E132" s="53" t="s">
+      <c r="E132" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
@@ -13259,13 +13338,13 @@
       <c r="B133" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="C133" s="53" t="s">
+      <c r="C133" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="E133" s="53" t="s">
+      <c r="E133" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
@@ -13279,7 +13358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -13355,7 +13434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E6F23-B764-5243-842F-046C5535819A}">
   <dimension ref="A1:B134"/>
   <sheetViews>
@@ -14182,120 +14261,120 @@
       <c r="A1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/annotations_and_abbreviations.xlsx
+++ b/tests/integration_test_files/annotations_and_abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08972F1F-F2C4-C441-A330-F3609729866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72E7DB-4343-5E4B-A5DD-075334B2C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41460" yWindow="2980" windowWidth="58640" windowHeight="23700" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47680" yWindow="2980" windowWidth="52420" windowHeight="23700" firstSheet="11" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="1249">
   <si>
     <t>name</t>
   </si>
@@ -3808,6 +3808,15 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>ANN_01, ANN_04</t>
+  </si>
+  <si>
+    <t>ANN_04</t>
+  </si>
+  <si>
+    <t>Additional note</t>
   </si>
 </sst>
 </file>
@@ -6028,7 +6037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -10624,10 +10633,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFABB680-8BAD-E04C-BA6A-5C36BD53129A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10668,6 +10677,14 @@
       </c>
       <c r="B4" t="s">
         <v>1244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -14608,10 +14625,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14621,9 +14638,10 @@
     <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -14642,8 +14660,11 @@
       <c r="F1" s="21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="21" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>128</v>
       </c>
@@ -14662,8 +14683,11 @@
       <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>97</v>
       </c>
@@ -14683,7 +14707,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
@@ -14710,10 +14734,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14724,7 +14748,7 @@
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -14737,8 +14761,11 @@
       <c r="D1" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="21" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>134</v>
       </c>
@@ -14751,8 +14778,11 @@
       <c r="D2" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>89</v>
       </c>
@@ -14766,7 +14796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>90</v>
       </c>
@@ -14780,7 +14810,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>91</v>
       </c>
@@ -14794,7 +14824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>92</v>
       </c>

--- a/tests/integration_test_files/annotations_and_abbreviations.xlsx
+++ b/tests/integration_test_files/annotations_and_abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72E7DB-4343-5E4B-A5DD-075334B2C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E1B11-9AA5-CB45-A1A1-5C34B8550602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47680" yWindow="2980" windowWidth="52420" windowHeight="23700" firstSheet="11" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50280" yWindow="2760" windowWidth="52420" windowHeight="23700" firstSheet="12" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,17 @@
     <sheet name="dictionaries" sheetId="23" r:id="rId23"/>
     <sheet name="somethingElse" sheetId="24" r:id="rId24"/>
     <sheet name="annotations" sheetId="28" r:id="rId25"/>
-    <sheet name="spareFormat" sheetId="25" r:id="rId26"/>
-    <sheet name="configuration" sheetId="26" r:id="rId27"/>
-    <sheet name="documentContent" sheetId="27" r:id="rId28"/>
+    <sheet name="abbreviations" sheetId="29" r:id="rId26"/>
+    <sheet name="spareFormat" sheetId="25" r:id="rId27"/>
+    <sheet name="configuration" sheetId="26" r:id="rId28"/>
+    <sheet name="documentContent" sheetId="27" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="1252">
   <si>
     <t>name</t>
   </si>
@@ -3817,6 +3818,15 @@
   </si>
   <si>
     <t>Additional note</t>
+  </si>
+  <si>
+    <t>abbreviatedText</t>
+  </si>
+  <si>
+    <t>expandedText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrocardiogram </t>
   </si>
 </sst>
 </file>
@@ -10635,7 +10645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFABB680-8BAD-E04C-BA6A-5C36BD53129A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -10693,6 +10703,44 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D5AB3-28F9-594C-AE35-2D8023E05070}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:F133"/>
   <sheetViews>
@@ -13375,7 +13423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -13451,12 +13499,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E6F23-B764-5243-842F-046C5535819A}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A133" sqref="A2:A133"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/integration_test_files/annotations_and_abbreviations.xlsx
+++ b/tests/integration_test_files/annotations_and_abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E1B11-9AA5-CB45-A1A1-5C34B8550602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC669C2-F8FB-8748-BDEC-BB79BC98204B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50280" yWindow="2760" windowWidth="52420" windowHeight="23700" firstSheet="12" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" firstSheet="19" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="1254">
   <si>
     <t>name</t>
   </si>
@@ -1807,9 +1807,6 @@
   </si>
   <si>
     <t>Rationale for Trial Design</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Previous studies of the oral formulation have shown that xanomeline tartrate may improve behavior and cognition. Effects on behavior are manifest within 2 to 4 weeks of initiation of treatment. The same studies have shown that 8 to 12 weeks are required to demonstrate effects on cognition and clinical global assessment. This study is intended to determine the acute and chronic effects of the TTS formulation in AD; for that reason, the study is of 26 weeks duration. Dosage specification has been made on the basis of tolerance to the xanomeline TTS in a clinical pharmacology study (H2Q-EW-LKAA), and target plasma levels as determined in studies of the oral formulation of xanomeline (H2Q-MC-LZZA).&lt;/p&gt;</t>
   </si>
   <si>
     <t>4.2.1</t>
@@ -3827,6 +3824,15 @@
   </si>
   <si>
     <t xml:space="preserve">Electrocardiogram </t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Previous studies of the oral formulation have shown that xanomeline tartrate may improve behavior and cognition. Effects on behavior are manifest within 2 to 4 weeks of initiation of treatment. The same studies have shown that 8 to 12 weeks are required to demonstrate effects on cognition and clinical global assessment. This study is intended to determine the acute and chronic effects of the TTS formulation in AD; for that reason, the study is of 26 weeks duration. Dosage specification has been made on the basis of tolerance to the xanomeline TTS in a clinical pharmacology study (H2Q-EW-LKAA), and target plasma levels as determined in studies of the oral formulation of xanomeline (H2Q-MC-LZZA).&lt;/p&gt;&lt;p&gt;Abbreviations: &lt;usdm:macro id="abbreviations" items="ECG, AD"/&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -6077,7 +6083,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6103,7 +6109,7 @@
         <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7970,41 +7976,41 @@
         <v>553</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D1" s="54" t="s">
         <v>554</v>
       </c>
       <c r="E1" s="53" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>839</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>555</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>556</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>558</v>
@@ -8019,12 +8025,12 @@
         <v>49</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>560</v>
@@ -8039,12 +8045,12 @@
         <v>49</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>562</v>
@@ -8059,12 +8065,12 @@
         <v>49</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>564</v>
@@ -8079,12 +8085,12 @@
         <v>49</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -8099,12 +8105,12 @@
         <v>49</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>568</v>
@@ -8119,12 +8125,12 @@
         <v>49</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>570</v>
@@ -8139,12 +8145,12 @@
         <v>49</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>572</v>
@@ -8159,12 +8165,12 @@
         <v>49</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>574</v>
@@ -8179,12 +8185,12 @@
         <v>49</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>577</v>
@@ -8199,12 +8205,12 @@
         <v>49</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>579</v>
@@ -8219,12 +8225,12 @@
         <v>49</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>582</v>
@@ -8239,12 +8245,12 @@
         <v>49</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>584</v>
@@ -8259,2367 +8265,2367 @@
         <v>49</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="E16" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>591</v>
-      </c>
       <c r="E17" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>593</v>
-      </c>
       <c r="E18" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C19" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="E19" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>597</v>
-      </c>
       <c r="E20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>599</v>
-      </c>
       <c r="E21" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C22" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>601</v>
-      </c>
       <c r="E22" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>604</v>
-      </c>
       <c r="E23" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="E24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>609</v>
-      </c>
       <c r="E25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>612</v>
-      </c>
       <c r="E26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="E27" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C28" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>616</v>
-      </c>
       <c r="E28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>619</v>
-      </c>
       <c r="E29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C30" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>621</v>
-      </c>
       <c r="E30" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>623</v>
-      </c>
       <c r="E31" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>625</v>
-      </c>
       <c r="E32" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>627</v>
-      </c>
       <c r="E33" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C34" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>629</v>
-      </c>
       <c r="E34" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C35" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>631</v>
-      </c>
       <c r="E35" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C36" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>633</v>
-      </c>
       <c r="E36" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="E37" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>637</v>
-      </c>
       <c r="E38" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C39" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>639</v>
-      </c>
       <c r="E39" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>641</v>
-      </c>
       <c r="E40" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C41" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>643</v>
-      </c>
       <c r="E41" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C42" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>645</v>
-      </c>
       <c r="E42" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>647</v>
-      </c>
       <c r="E43" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C44" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>649</v>
-      </c>
       <c r="E44" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C45" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>651</v>
-      </c>
       <c r="E45" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>654</v>
-      </c>
       <c r="E46" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C47" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>656</v>
-      </c>
       <c r="E47" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C48" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>658</v>
-      </c>
       <c r="E48" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="C49" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>660</v>
-      </c>
       <c r="E49" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="C50" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>662</v>
-      </c>
       <c r="E50" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="C51" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>664</v>
-      </c>
       <c r="E51" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="C52" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>666</v>
-      </c>
       <c r="E52" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="C53" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>668</v>
-      </c>
       <c r="E53" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C54" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>670</v>
-      </c>
       <c r="E54" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="C55" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>672</v>
-      </c>
       <c r="E55" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C56" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>674</v>
-      </c>
       <c r="E56" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="C57" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>676</v>
-      </c>
       <c r="E57" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C58" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>678</v>
-      </c>
       <c r="E58" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C59" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>680</v>
-      </c>
       <c r="E59" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C60" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="E60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C61" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>684</v>
-      </c>
       <c r="E61" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="C62" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>686</v>
-      </c>
       <c r="E62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="C63" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>688</v>
-      </c>
       <c r="E63" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="C64" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>690</v>
-      </c>
       <c r="E64" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="C65" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>692</v>
-      </c>
       <c r="E65" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="C66" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="E66" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="C67" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>696</v>
-      </c>
       <c r="E67" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B68" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C68" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>698</v>
-      </c>
       <c r="E68" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C69" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>700</v>
-      </c>
       <c r="E69" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="C70" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>702</v>
-      </c>
       <c r="E70" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="C71" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>704</v>
-      </c>
       <c r="E71" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C72" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>706</v>
-      </c>
       <c r="E72" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B73" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C73" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>708</v>
-      </c>
       <c r="E73" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C74" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>710</v>
-      </c>
       <c r="E74" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B75" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="C75" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>712</v>
-      </c>
       <c r="E75" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>714</v>
-      </c>
       <c r="E76" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B77" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C77" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>716</v>
-      </c>
       <c r="E77" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C78" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>718</v>
-      </c>
       <c r="E78" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B79" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="C79" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>720</v>
-      </c>
       <c r="E79" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B80" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C80" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>722</v>
-      </c>
       <c r="E80" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B81" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="C81" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>724</v>
-      </c>
       <c r="E81" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B82" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="C82" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>726</v>
-      </c>
       <c r="E82" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B83" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C83" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>728</v>
-      </c>
       <c r="E83" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C84" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>730</v>
-      </c>
       <c r="E84" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B85" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>732</v>
-      </c>
       <c r="E85" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B86" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C86" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>734</v>
-      </c>
       <c r="E86" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B87" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C87" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>736</v>
-      </c>
       <c r="E87" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B88" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="C88" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>738</v>
-      </c>
       <c r="E88" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B89" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C89" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>740</v>
-      </c>
       <c r="E89" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B90" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="C90" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="C90" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>742</v>
-      </c>
       <c r="E90" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C91" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>744</v>
-      </c>
       <c r="E91" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B93" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C93" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>747</v>
-      </c>
       <c r="E93" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B94" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C94" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>749</v>
-      </c>
       <c r="E94" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C95" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>751</v>
-      </c>
       <c r="E95" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B96" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C96" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="E96" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B97" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C97" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="E97" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B98" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C98" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>757</v>
-      </c>
       <c r="E98" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F98" s="39" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B99" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C99" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>759</v>
-      </c>
       <c r="E99" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B100" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C100" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>761</v>
-      </c>
       <c r="E100" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B101" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C101" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>763</v>
-      </c>
       <c r="E101" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B102" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C102" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="E102" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B103" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="C103" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>767</v>
-      </c>
       <c r="E103" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B104" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C104" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>769</v>
-      </c>
       <c r="E104" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B105" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C105" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>771</v>
-      </c>
       <c r="E105" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C106" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C106" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>773</v>
-      </c>
       <c r="E106" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B107" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C107" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>775</v>
-      </c>
       <c r="E107" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C108" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C108" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>777</v>
-      </c>
       <c r="E108" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C109" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>779</v>
-      </c>
       <c r="E109" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B110" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C110" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C110" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>781</v>
-      </c>
       <c r="E110" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F110" s="39" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C111" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C111" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="E111" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B112" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C112" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>785</v>
-      </c>
       <c r="E112" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F112" s="39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B113" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="C113" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>787</v>
-      </c>
       <c r="E113" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B114" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C114" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>789</v>
-      </c>
       <c r="E114" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B115" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="C115" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>791</v>
-      </c>
       <c r="E115" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B116" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C116" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="E116" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F116" s="39" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B117" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C117" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C117" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>795</v>
-      </c>
       <c r="E117" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B118" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="C118" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>797</v>
-      </c>
       <c r="E118" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B119" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="C119" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>799</v>
-      </c>
       <c r="E119" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B120" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="C120" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>801</v>
-      </c>
       <c r="E120" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F120" s="39" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B121" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C121" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="C121" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>803</v>
-      </c>
       <c r="E121" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B122" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="C122" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>805</v>
-      </c>
       <c r="E122" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B123" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="C123" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="C123" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>807</v>
-      </c>
       <c r="E123" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B124" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="C124" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>809</v>
-      </c>
       <c r="E124" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F124" s="39" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C125" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>811</v>
-      </c>
       <c r="E125" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B126" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C126" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>813</v>
-      </c>
       <c r="E126" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F126" s="39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B127" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C127" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>815</v>
-      </c>
       <c r="E127" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C128" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="E128" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F128" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B129" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C129" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>819</v>
-      </c>
       <c r="E129" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B130" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C130" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>821</v>
-      </c>
       <c r="E130" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F130" s="39" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B131" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C131" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>823</v>
-      </c>
       <c r="E131" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B132" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="C132" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>825</v>
-      </c>
       <c r="E132" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F132" s="39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B133" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="C133" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>827</v>
-      </c>
       <c r="E133" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -10667,34 +10673,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B2" t="s">
         <v>1239</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B3" t="s">
         <v>1241</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B4" t="s">
         <v>1243</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B5" t="s">
         <v>1247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -10704,10 +10710,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D5AB3-28F9-594C-AE35-2D8023E05070}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10718,13 +10724,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>1249</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>1250</v>
-      </c>
       <c r="C1" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10732,7 +10738,18 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -10764,41 +10781,41 @@
         <v>553</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>554</v>
       </c>
       <c r="E1" s="43" t="s">
+        <v>838</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>839</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>555</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>556</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>558</v>
@@ -10813,12 +10830,12 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>560</v>
@@ -10833,12 +10850,12 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>562</v>
@@ -10853,12 +10870,12 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>564</v>
@@ -10873,12 +10890,12 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -10893,12 +10910,12 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>568</v>
@@ -10913,12 +10930,12 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>570</v>
@@ -10933,12 +10950,12 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>572</v>
@@ -10953,12 +10970,12 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>574</v>
@@ -10973,12 +10990,12 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>577</v>
@@ -10993,12 +11010,12 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>579</v>
@@ -11013,12 +11030,12 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>582</v>
@@ -11033,12 +11050,12 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>584</v>
@@ -11053,2367 +11070,2367 @@
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="E16" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>591</v>
-      </c>
       <c r="E17" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>593</v>
-      </c>
       <c r="E18" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C19" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>595</v>
-      </c>
       <c r="E19" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="C20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>597</v>
-      </c>
       <c r="E20" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>599</v>
-      </c>
       <c r="E21" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C22" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>601</v>
-      </c>
       <c r="E22" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>604</v>
-      </c>
       <c r="E23" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="E24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="C25" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>609</v>
-      </c>
       <c r="E25" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C26" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>612</v>
-      </c>
       <c r="E26" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="E27" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C28" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>616</v>
-      </c>
       <c r="E28" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="C29" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>619</v>
-      </c>
       <c r="E29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C30" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>621</v>
-      </c>
       <c r="E30" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>623</v>
-      </c>
       <c r="E31" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>625</v>
-      </c>
       <c r="E32" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>627</v>
-      </c>
       <c r="E33" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C34" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>629</v>
-      </c>
       <c r="E34" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C35" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>631</v>
-      </c>
       <c r="E35" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C36" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>633</v>
-      </c>
       <c r="E36" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="E37" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>637</v>
-      </c>
       <c r="E38" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C39" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>639</v>
-      </c>
       <c r="E39" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>641</v>
-      </c>
       <c r="E40" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C41" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>643</v>
-      </c>
       <c r="E41" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="C42" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>645</v>
-      </c>
       <c r="E42" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>647</v>
-      </c>
       <c r="E43" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C44" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>649</v>
-      </c>
       <c r="E44" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C45" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>651</v>
-      </c>
       <c r="E45" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="C46" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>654</v>
-      </c>
       <c r="E46" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="C47" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>656</v>
-      </c>
       <c r="E47" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C48" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>658</v>
-      </c>
       <c r="E48" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="C49" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>660</v>
-      </c>
       <c r="E49" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="C50" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>662</v>
-      </c>
       <c r="E50" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="C51" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>664</v>
-      </c>
       <c r="E51" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="C52" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>666</v>
-      </c>
       <c r="E52" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="C53" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>668</v>
-      </c>
       <c r="E53" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C54" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>670</v>
-      </c>
       <c r="E54" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="C55" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>672</v>
-      </c>
       <c r="E55" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="C56" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>674</v>
-      </c>
       <c r="E56" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="C57" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>676</v>
-      </c>
       <c r="E57" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C58" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>678</v>
-      </c>
       <c r="E58" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="C59" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>680</v>
-      </c>
       <c r="E59" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C60" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="E60" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C61" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>684</v>
-      </c>
       <c r="E61" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="C62" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>686</v>
-      </c>
       <c r="E62" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="C63" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>688</v>
-      </c>
       <c r="E63" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="C64" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>690</v>
-      </c>
       <c r="E64" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="C65" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>692</v>
-      </c>
       <c r="E65" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="C66" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="E66" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="C67" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>696</v>
-      </c>
       <c r="E67" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B68" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C68" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>698</v>
-      </c>
       <c r="E68" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C69" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>700</v>
-      </c>
       <c r="E69" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B70" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="C70" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>702</v>
-      </c>
       <c r="E70" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B71" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="C71" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>704</v>
-      </c>
       <c r="E71" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C72" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>706</v>
-      </c>
       <c r="E72" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B73" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C73" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>708</v>
-      </c>
       <c r="E73" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B74" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C74" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>710</v>
-      </c>
       <c r="E74" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B75" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="C75" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>712</v>
-      </c>
       <c r="E75" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B76" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>714</v>
-      </c>
       <c r="E76" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B77" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="C77" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>716</v>
-      </c>
       <c r="E77" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B78" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="C78" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>718</v>
-      </c>
       <c r="E78" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B79" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="C79" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>720</v>
-      </c>
       <c r="E79" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B80" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C80" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>722</v>
-      </c>
       <c r="E80" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B81" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="C81" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>724</v>
-      </c>
       <c r="E81" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B82" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="C82" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>726</v>
-      </c>
       <c r="E82" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B83" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C83" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>728</v>
-      </c>
       <c r="E83" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B84" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C84" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>730</v>
-      </c>
       <c r="E84" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B85" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>732</v>
-      </c>
       <c r="E85" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B86" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C86" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>734</v>
-      </c>
       <c r="E86" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B87" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="C87" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>736</v>
-      </c>
       <c r="E87" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B88" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="C88" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>738</v>
-      </c>
       <c r="E88" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B89" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="C89" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>740</v>
-      </c>
       <c r="E89" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B90" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="C90" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="C90" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>742</v>
-      </c>
       <c r="E90" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C91" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>744</v>
-      </c>
       <c r="E91" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E92" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B93" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="C93" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>747</v>
-      </c>
       <c r="E93" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B94" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="C94" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>749</v>
-      </c>
       <c r="E94" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="C95" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>751</v>
-      </c>
       <c r="E95" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B96" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C96" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>753</v>
-      </c>
       <c r="E96" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B97" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C97" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="E97" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B98" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C98" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>757</v>
-      </c>
       <c r="E98" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B99" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C99" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>759</v>
-      </c>
       <c r="E99" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B100" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C100" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>761</v>
-      </c>
       <c r="E100" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B101" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="C101" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>763</v>
-      </c>
       <c r="E101" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B102" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="C102" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="E102" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B103" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="C103" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>767</v>
-      </c>
       <c r="E103" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B104" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="C104" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>769</v>
-      </c>
       <c r="E104" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B105" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C105" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>771</v>
-      </c>
       <c r="E105" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B106" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C106" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C106" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>773</v>
-      </c>
       <c r="E106" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B107" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="C107" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>775</v>
-      </c>
       <c r="E107" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C108" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="C108" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>777</v>
-      </c>
       <c r="E108" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B109" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="C109" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>779</v>
-      </c>
       <c r="E109" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B110" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C110" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C110" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>781</v>
-      </c>
       <c r="E110" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B111" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="C111" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="C111" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>783</v>
-      </c>
       <c r="E111" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B112" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="C112" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>785</v>
-      </c>
       <c r="E112" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B113" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="C113" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>787</v>
-      </c>
       <c r="E113" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B114" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="C114" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>789</v>
-      </c>
       <c r="E114" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B115" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="C115" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>791</v>
-      </c>
       <c r="E115" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B116" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C116" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="E116" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B117" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="C117" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="C117" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>795</v>
-      </c>
       <c r="E117" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B118" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="C118" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>797</v>
-      </c>
       <c r="E118" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B119" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="C119" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>799</v>
-      </c>
       <c r="E119" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B120" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="C120" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>801</v>
-      </c>
       <c r="E120" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B121" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="C121" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="C121" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>803</v>
-      </c>
       <c r="E121" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B122" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="C122" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>805</v>
-      </c>
       <c r="E122" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B123" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="C123" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="C123" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>807</v>
-      </c>
       <c r="E123" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B124" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="C124" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>809</v>
-      </c>
       <c r="E124" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B125" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C125" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>811</v>
-      </c>
       <c r="E125" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B126" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C126" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>813</v>
-      </c>
       <c r="E126" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B127" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C127" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>815</v>
-      </c>
       <c r="E127" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B128" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C128" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="E128" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B129" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C129" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>819</v>
-      </c>
       <c r="E129" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B130" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C130" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>821</v>
-      </c>
       <c r="E130" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B131" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C131" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>823</v>
-      </c>
       <c r="E131" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B132" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="C132" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>825</v>
-      </c>
       <c r="E132" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B133" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="C133" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>827</v>
-      </c>
       <c r="E133" s="50" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -13439,58 +13456,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" t="s">
         <v>828</v>
-      </c>
-      <c r="B1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="B5" t="s">
         <v>833</v>
-      </c>
-      <c r="B5" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="B7" t="s">
         <v>836</v>
-      </c>
-      <c r="B7" t="s">
-        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -13503,8 +13520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E6F23-B764-5243-842F-046C5535819A}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13523,7 +13540,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>557</v>
@@ -13531,22 +13548,22 @@
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>566</v>
@@ -13554,27 +13571,27 @@
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>576</v>
@@ -13582,12 +13599,12 @@
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>581</v>
@@ -13595,628 +13612,628 @@
     </row>
     <row r="14" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>586</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -14709,7 +14726,7 @@
         <v>127</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -14732,7 +14749,7 @@
         <v>131</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -14810,7 +14827,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -14827,7 +14844,7 @@
         <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/annotations_and_abbreviations.xlsx
+++ b/tests/integration_test_files/annotations_and_abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC669C2-F8FB-8748-BDEC-BB79BC98204B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471BA471-B795-1D40-B34C-C5BE57B8F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" firstSheet="19" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" firstSheet="19" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="studyDesignElements" sheetId="22" r:id="rId22"/>
     <sheet name="dictionaries" sheetId="23" r:id="rId23"/>
     <sheet name="somethingElse" sheetId="24" r:id="rId24"/>
-    <sheet name="annotations" sheetId="28" r:id="rId25"/>
+    <sheet name="notes" sheetId="28" r:id="rId25"/>
     <sheet name="abbreviations" sheetId="29" r:id="rId26"/>
     <sheet name="spareFormat" sheetId="25" r:id="rId27"/>
     <sheet name="configuration" sheetId="26" r:id="rId28"/>
@@ -10652,7 +10652,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10712,8 +10712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D5AB3-28F9-594C-AE35-2D8023E05070}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13520,7 +13520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E6F23-B764-5243-842F-046C5535819A}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/tests/integration_test_files/annotations_and_abbreviations.xlsx
+++ b/tests/integration_test_files/annotations_and_abbreviations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471BA471-B795-1D40-B34C-C5BE57B8F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A107A288-8566-2249-B795-6C69C0100C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" firstSheet="19" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" firstSheet="19" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -40,15 +40,15 @@
     <sheet name="notes" sheetId="28" r:id="rId25"/>
     <sheet name="abbreviations" sheetId="29" r:id="rId26"/>
     <sheet name="spareFormat" sheetId="25" r:id="rId27"/>
-    <sheet name="configuration" sheetId="26" r:id="rId28"/>
-    <sheet name="documentContent" sheetId="27" r:id="rId29"/>
+    <sheet name="documentContent" sheetId="27" r:id="rId28"/>
+    <sheet name="configuration" sheetId="26" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1252">
   <si>
     <t>name</t>
   </si>
@@ -2576,12 +2576,6 @@
   </si>
   <si>
     <t>XXX=spareFormat</t>
-  </si>
-  <si>
-    <t>Use Template</t>
-  </si>
-  <si>
-    <t>m11</t>
   </si>
   <si>
     <t>displaySectionNumber</t>
@@ -6083,7 +6077,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6109,7 +6103,7 @@
         <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7976,41 +7970,41 @@
         <v>553</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D1" s="54" t="s">
         <v>554</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>555</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>556</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>558</v>
@@ -8025,12 +8019,12 @@
         <v>49</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>560</v>
@@ -8045,12 +8039,12 @@
         <v>49</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>562</v>
@@ -8065,12 +8059,12 @@
         <v>49</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>564</v>
@@ -8085,12 +8079,12 @@
         <v>49</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -8105,12 +8099,12 @@
         <v>49</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>568</v>
@@ -8125,12 +8119,12 @@
         <v>49</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>570</v>
@@ -8145,12 +8139,12 @@
         <v>49</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>572</v>
@@ -8165,12 +8159,12 @@
         <v>49</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>574</v>
@@ -8185,12 +8179,12 @@
         <v>49</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>577</v>
@@ -8205,12 +8199,12 @@
         <v>49</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>579</v>
@@ -8225,12 +8219,12 @@
         <v>49</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>582</v>
@@ -8245,12 +8239,12 @@
         <v>49</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>584</v>
@@ -8265,12 +8259,12 @@
         <v>49</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>586</v>
@@ -8285,12 +8279,12 @@
         <v>49</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>589</v>
@@ -8305,12 +8299,12 @@
         <v>49</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>591</v>
@@ -8325,12 +8319,12 @@
         <v>49</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>593</v>
@@ -8345,12 +8339,12 @@
         <v>49</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>595</v>
@@ -8365,12 +8359,12 @@
         <v>49</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>597</v>
@@ -8385,12 +8379,12 @@
         <v>49</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>599</v>
@@ -8405,12 +8399,12 @@
         <v>49</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>602</v>
@@ -8425,12 +8419,12 @@
         <v>49</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>604</v>
@@ -8445,12 +8439,12 @@
         <v>49</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>607</v>
@@ -8465,12 +8459,12 @@
         <v>49</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>610</v>
@@ -8485,12 +8479,12 @@
         <v>49</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>612</v>
@@ -8505,12 +8499,12 @@
         <v>49</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>614</v>
@@ -8525,12 +8519,12 @@
         <v>49</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>617</v>
@@ -8545,12 +8539,12 @@
         <v>49</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>619</v>
@@ -8565,12 +8559,12 @@
         <v>49</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>621</v>
@@ -8585,12 +8579,12 @@
         <v>49</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>623</v>
@@ -8605,12 +8599,12 @@
         <v>49</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>625</v>
@@ -8625,12 +8619,12 @@
         <v>49</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>627</v>
@@ -8645,12 +8639,12 @@
         <v>49</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>629</v>
@@ -8665,12 +8659,12 @@
         <v>49</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>631</v>
@@ -8685,12 +8679,12 @@
         <v>49</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>633</v>
@@ -8705,12 +8699,12 @@
         <v>49</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>635</v>
@@ -8725,12 +8719,12 @@
         <v>49</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>637</v>
@@ -8745,12 +8739,12 @@
         <v>49</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>639</v>
@@ -8765,12 +8759,12 @@
         <v>49</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>641</v>
@@ -8785,12 +8779,12 @@
         <v>49</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>643</v>
@@ -8805,12 +8799,12 @@
         <v>49</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>645</v>
@@ -8825,12 +8819,12 @@
         <v>49</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>647</v>
@@ -8845,12 +8839,12 @@
         <v>49</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>649</v>
@@ -8865,12 +8859,12 @@
         <v>49</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>652</v>
@@ -8885,12 +8879,12 @@
         <v>49</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>654</v>
@@ -8905,12 +8899,12 @@
         <v>49</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>656</v>
@@ -8925,12 +8919,12 @@
         <v>49</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>658</v>
@@ -8945,12 +8939,12 @@
         <v>49</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>660</v>
@@ -8965,12 +8959,12 @@
         <v>49</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>662</v>
@@ -8985,12 +8979,12 @@
         <v>49</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>664</v>
@@ -9005,12 +8999,12 @@
         <v>49</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>666</v>
@@ -9025,12 +9019,12 @@
         <v>49</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>668</v>
@@ -9045,12 +9039,12 @@
         <v>49</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>670</v>
@@ -9065,12 +9059,12 @@
         <v>49</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>672</v>
@@ -9085,12 +9079,12 @@
         <v>49</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>674</v>
@@ -9105,12 +9099,12 @@
         <v>49</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>676</v>
@@ -9125,12 +9119,12 @@
         <v>49</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>678</v>
@@ -9145,12 +9139,12 @@
         <v>49</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>680</v>
@@ -9165,12 +9159,12 @@
         <v>49</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>682</v>
@@ -9185,12 +9179,12 @@
         <v>49</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>684</v>
@@ -9205,12 +9199,12 @@
         <v>49</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>686</v>
@@ -9225,12 +9219,12 @@
         <v>49</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>688</v>
@@ -9245,12 +9239,12 @@
         <v>49</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>690</v>
@@ -9265,12 +9259,12 @@
         <v>49</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>692</v>
@@ -9285,12 +9279,12 @@
         <v>49</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>694</v>
@@ -9305,12 +9299,12 @@
         <v>49</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>696</v>
@@ -9325,12 +9319,12 @@
         <v>49</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>698</v>
@@ -9345,12 +9339,12 @@
         <v>49</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>700</v>
@@ -9365,12 +9359,12 @@
         <v>49</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>702</v>
@@ -9385,12 +9379,12 @@
         <v>49</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>704</v>
@@ -9405,12 +9399,12 @@
         <v>49</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>706</v>
@@ -9425,12 +9419,12 @@
         <v>49</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>708</v>
@@ -9445,12 +9439,12 @@
         <v>49</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>710</v>
@@ -9465,12 +9459,12 @@
         <v>49</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>712</v>
@@ -9485,12 +9479,12 @@
         <v>49</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>714</v>
@@ -9505,12 +9499,12 @@
         <v>49</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>716</v>
@@ -9525,12 +9519,12 @@
         <v>49</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>718</v>
@@ -9545,12 +9539,12 @@
         <v>49</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>720</v>
@@ -9565,12 +9559,12 @@
         <v>49</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>722</v>
@@ -9585,12 +9579,12 @@
         <v>49</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>724</v>
@@ -9605,12 +9599,12 @@
         <v>49</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>726</v>
@@ -9625,12 +9619,12 @@
         <v>49</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>728</v>
@@ -9645,12 +9639,12 @@
         <v>49</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>730</v>
@@ -9665,12 +9659,12 @@
         <v>49</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>732</v>
@@ -9685,12 +9679,12 @@
         <v>49</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>734</v>
@@ -9705,12 +9699,12 @@
         <v>49</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>736</v>
@@ -9725,12 +9719,12 @@
         <v>49</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>738</v>
@@ -9745,12 +9739,12 @@
         <v>49</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>740</v>
@@ -9765,12 +9759,12 @@
         <v>49</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>742</v>
@@ -9785,12 +9779,12 @@
         <v>49</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>682</v>
@@ -9805,12 +9799,12 @@
         <v>49</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>745</v>
@@ -9825,12 +9819,12 @@
         <v>49</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>747</v>
@@ -9845,12 +9839,12 @@
         <v>49</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>749</v>
@@ -9865,12 +9859,12 @@
         <v>49</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>751</v>
@@ -9885,12 +9879,12 @@
         <v>49</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>753</v>
@@ -9905,12 +9899,12 @@
         <v>49</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>755</v>
@@ -9925,12 +9919,12 @@
         <v>49</v>
       </c>
       <c r="F98" s="39" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>757</v>
@@ -9945,12 +9939,12 @@
         <v>49</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>759</v>
@@ -9965,12 +9959,12 @@
         <v>49</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>761</v>
@@ -9985,12 +9979,12 @@
         <v>49</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>763</v>
@@ -10005,12 +9999,12 @@
         <v>49</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>765</v>
@@ -10025,12 +10019,12 @@
         <v>49</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>767</v>
@@ -10045,12 +10039,12 @@
         <v>49</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>769</v>
@@ -10065,12 +10059,12 @@
         <v>49</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>771</v>
@@ -10085,12 +10079,12 @@
         <v>49</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>773</v>
@@ -10105,12 +10099,12 @@
         <v>49</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>775</v>
@@ -10125,12 +10119,12 @@
         <v>49</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>777</v>
@@ -10145,12 +10139,12 @@
         <v>49</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>779</v>
@@ -10165,12 +10159,12 @@
         <v>49</v>
       </c>
       <c r="F110" s="39" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>781</v>
@@ -10185,12 +10179,12 @@
         <v>49</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>783</v>
@@ -10205,12 +10199,12 @@
         <v>49</v>
       </c>
       <c r="F112" s="39" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>785</v>
@@ -10225,12 +10219,12 @@
         <v>49</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>787</v>
@@ -10245,12 +10239,12 @@
         <v>49</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>789</v>
@@ -10265,12 +10259,12 @@
         <v>49</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>791</v>
@@ -10285,12 +10279,12 @@
         <v>49</v>
       </c>
       <c r="F116" s="39" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>793</v>
@@ -10305,12 +10299,12 @@
         <v>49</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>795</v>
@@ -10325,12 +10319,12 @@
         <v>49</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>797</v>
@@ -10345,12 +10339,12 @@
         <v>49</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>799</v>
@@ -10365,12 +10359,12 @@
         <v>49</v>
       </c>
       <c r="F120" s="39" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>801</v>
@@ -10385,12 +10379,12 @@
         <v>49</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>803</v>
@@ -10405,12 +10399,12 @@
         <v>49</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>805</v>
@@ -10425,12 +10419,12 @@
         <v>49</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>807</v>
@@ -10445,12 +10439,12 @@
         <v>49</v>
       </c>
       <c r="F124" s="39" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>809</v>
@@ -10465,12 +10459,12 @@
         <v>49</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>811</v>
@@ -10485,12 +10479,12 @@
         <v>49</v>
       </c>
       <c r="F126" s="39" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>813</v>
@@ -10505,12 +10499,12 @@
         <v>49</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>815</v>
@@ -10525,12 +10519,12 @@
         <v>49</v>
       </c>
       <c r="F128" s="39" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>817</v>
@@ -10545,12 +10539,12 @@
         <v>49</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>819</v>
@@ -10565,12 +10559,12 @@
         <v>49</v>
       </c>
       <c r="F130" s="39" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>821</v>
@@ -10585,12 +10579,12 @@
         <v>49</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>823</v>
@@ -10605,12 +10599,12 @@
         <v>49</v>
       </c>
       <c r="F132" s="39" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>825</v>
@@ -10625,7 +10619,7 @@
         <v>49</v>
       </c>
       <c r="F133" s="14" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -10673,34 +10667,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -10712,7 +10706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D5AB3-28F9-594C-AE35-2D8023E05070}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -10724,13 +10718,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10738,18 +10732,18 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -10781,41 +10775,41 @@
         <v>553</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>554</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>555</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>556</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>558</v>
@@ -10830,12 +10824,12 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>560</v>
@@ -10850,12 +10844,12 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>562</v>
@@ -10870,12 +10864,12 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>564</v>
@@ -10890,12 +10884,12 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -10910,12 +10904,12 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>568</v>
@@ -10930,12 +10924,12 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>570</v>
@@ -10950,12 +10944,12 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>572</v>
@@ -10970,12 +10964,12 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>574</v>
@@ -10990,12 +10984,12 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>577</v>
@@ -11010,12 +11004,12 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>579</v>
@@ -11030,12 +11024,12 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>582</v>
@@ -11050,12 +11044,12 @@
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>584</v>
@@ -11070,12 +11064,12 @@
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>586</v>
@@ -11090,12 +11084,12 @@
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>589</v>
@@ -11110,12 +11104,12 @@
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>591</v>
@@ -11130,12 +11124,12 @@
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>593</v>
@@ -11150,12 +11144,12 @@
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>595</v>
@@ -11170,12 +11164,12 @@
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>597</v>
@@ -11190,12 +11184,12 @@
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>599</v>
@@ -11210,12 +11204,12 @@
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>602</v>
@@ -11230,12 +11224,12 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>604</v>
@@ -11250,12 +11244,12 @@
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>607</v>
@@ -11270,12 +11264,12 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>610</v>
@@ -11290,12 +11284,12 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>612</v>
@@ -11310,12 +11304,12 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>614</v>
@@ -11330,12 +11324,12 @@
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>617</v>
@@ -11350,12 +11344,12 @@
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>619</v>
@@ -11370,12 +11364,12 @@
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>621</v>
@@ -11390,12 +11384,12 @@
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>623</v>
@@ -11410,12 +11404,12 @@
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>625</v>
@@ -11430,12 +11424,12 @@
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>627</v>
@@ -11450,12 +11444,12 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>629</v>
@@ -11470,12 +11464,12 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>631</v>
@@ -11490,12 +11484,12 @@
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>633</v>
@@ -11510,12 +11504,12 @@
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>635</v>
@@ -11530,12 +11524,12 @@
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>637</v>
@@ -11550,12 +11544,12 @@
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>639</v>
@@ -11570,12 +11564,12 @@
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>641</v>
@@ -11590,12 +11584,12 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>643</v>
@@ -11610,12 +11604,12 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>645</v>
@@ -11630,12 +11624,12 @@
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>647</v>
@@ -11650,12 +11644,12 @@
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>649</v>
@@ -11670,12 +11664,12 @@
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>652</v>
@@ -11690,12 +11684,12 @@
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>654</v>
@@ -11710,12 +11704,12 @@
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>656</v>
@@ -11730,12 +11724,12 @@
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>658</v>
@@ -11750,12 +11744,12 @@
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>660</v>
@@ -11770,12 +11764,12 @@
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>662</v>
@@ -11790,12 +11784,12 @@
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>664</v>
@@ -11810,12 +11804,12 @@
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>666</v>
@@ -11830,12 +11824,12 @@
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>668</v>
@@ -11850,12 +11844,12 @@
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>670</v>
@@ -11870,12 +11864,12 @@
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>672</v>
@@ -11890,12 +11884,12 @@
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>674</v>
@@ -11910,12 +11904,12 @@
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>676</v>
@@ -11930,12 +11924,12 @@
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>678</v>
@@ -11950,12 +11944,12 @@
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>680</v>
@@ -11970,12 +11964,12 @@
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>682</v>
@@ -11990,12 +11984,12 @@
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>684</v>
@@ -12010,12 +12004,12 @@
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>686</v>
@@ -12030,12 +12024,12 @@
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>688</v>
@@ -12050,12 +12044,12 @@
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>690</v>
@@ -12070,12 +12064,12 @@
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>692</v>
@@ -12090,12 +12084,12 @@
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>694</v>
@@ -12110,12 +12104,12 @@
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>696</v>
@@ -12130,12 +12124,12 @@
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>698</v>
@@ -12150,12 +12144,12 @@
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>700</v>
@@ -12170,12 +12164,12 @@
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>702</v>
@@ -12190,12 +12184,12 @@
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>704</v>
@@ -12210,12 +12204,12 @@
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>706</v>
@@ -12230,12 +12224,12 @@
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>708</v>
@@ -12250,12 +12244,12 @@
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>710</v>
@@ -12270,12 +12264,12 @@
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>712</v>
@@ -12290,12 +12284,12 @@
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>714</v>
@@ -12310,12 +12304,12 @@
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>716</v>
@@ -12330,12 +12324,12 @@
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>718</v>
@@ -12350,12 +12344,12 @@
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>720</v>
@@ -12370,12 +12364,12 @@
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>722</v>
@@ -12390,12 +12384,12 @@
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>724</v>
@@ -12410,12 +12404,12 @@
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>726</v>
@@ -12430,12 +12424,12 @@
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>728</v>
@@ -12450,12 +12444,12 @@
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>730</v>
@@ -12470,12 +12464,12 @@
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>732</v>
@@ -12490,12 +12484,12 @@
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>734</v>
@@ -12510,12 +12504,12 @@
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>736</v>
@@ -12530,12 +12524,12 @@
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>738</v>
@@ -12550,12 +12544,12 @@
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>740</v>
@@ -12570,12 +12564,12 @@
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>742</v>
@@ -12590,12 +12584,12 @@
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>682</v>
@@ -12610,12 +12604,12 @@
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>745</v>
@@ -12630,12 +12624,12 @@
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>747</v>
@@ -12650,12 +12644,12 @@
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>749</v>
@@ -12670,12 +12664,12 @@
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>751</v>
@@ -12690,12 +12684,12 @@
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>753</v>
@@ -12710,12 +12704,12 @@
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>755</v>
@@ -12730,12 +12724,12 @@
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>757</v>
@@ -12750,12 +12744,12 @@
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>759</v>
@@ -12770,12 +12764,12 @@
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>761</v>
@@ -12790,12 +12784,12 @@
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>763</v>
@@ -12810,12 +12804,12 @@
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>765</v>
@@ -12830,12 +12824,12 @@
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>767</v>
@@ -12850,12 +12844,12 @@
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>769</v>
@@ -12870,12 +12864,12 @@
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>771</v>
@@ -12890,12 +12884,12 @@
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>773</v>
@@ -12910,12 +12904,12 @@
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>775</v>
@@ -12930,12 +12924,12 @@
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>777</v>
@@ -12950,12 +12944,12 @@
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>779</v>
@@ -12970,12 +12964,12 @@
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>781</v>
@@ -12990,12 +12984,12 @@
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>783</v>
@@ -13010,12 +13004,12 @@
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>785</v>
@@ -13030,12 +13024,12 @@
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>787</v>
@@ -13050,12 +13044,12 @@
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>789</v>
@@ -13070,12 +13064,12 @@
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>791</v>
@@ -13090,12 +13084,12 @@
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>793</v>
@@ -13110,12 +13104,12 @@
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>795</v>
@@ -13130,12 +13124,12 @@
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>797</v>
@@ -13150,12 +13144,12 @@
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>799</v>
@@ -13170,12 +13164,12 @@
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>801</v>
@@ -13190,12 +13184,12 @@
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>803</v>
@@ -13210,12 +13204,12 @@
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>805</v>
@@ -13230,12 +13224,12 @@
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>807</v>
@@ -13250,12 +13244,12 @@
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>809</v>
@@ -13270,12 +13264,12 @@
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>811</v>
@@ -13290,12 +13284,12 @@
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>813</v>
@@ -13310,12 +13304,12 @@
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>815</v>
@@ -13330,12 +13324,12 @@
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>817</v>
@@ -13350,12 +13344,12 @@
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>819</v>
@@ -13370,12 +13364,12 @@
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>821</v>
@@ -13390,12 +13384,12 @@
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>823</v>
@@ -13410,12 +13404,12 @@
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>825</v>
@@ -13430,7 +13424,7 @@
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -13441,82 +13435,6 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>827</v>
-      </c>
-      <c r="B1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>827</v>
-      </c>
-      <c r="B2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>827</v>
-      </c>
-      <c r="B3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>827</v>
-      </c>
-      <c r="B4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>832</v>
-      </c>
-      <c r="B5" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>832</v>
-      </c>
-      <c r="B6" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="B7" t="s">
-        <v>836</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E6F23-B764-5243-842F-046C5535819A}">
   <dimension ref="A1:B134"/>
   <sheetViews>
@@ -13540,7 +13458,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>557</v>
@@ -13548,22 +13466,22 @@
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>566</v>
@@ -13571,27 +13489,27 @@
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>576</v>
@@ -13599,12 +13517,12 @@
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>581</v>
@@ -13612,20 +13530,20 @@
     </row>
     <row r="14" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>588</v>
@@ -13633,32 +13551,32 @@
     </row>
     <row r="17" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>601</v>
@@ -13666,12 +13584,12 @@
     </row>
     <row r="23" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>606</v>
@@ -13679,7 +13597,7 @@
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>609</v>
@@ -13687,17 +13605,17 @@
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>616</v>
@@ -13705,87 +13623,87 @@
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>651</v>
@@ -13793,451 +13711,519 @@
     </row>
     <row r="46" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="B2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="B3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>827</v>
+      </c>
+      <c r="B4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>832</v>
+      </c>
+      <c r="B6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -14726,7 +14712,7 @@
         <v>127</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -14749,7 +14735,7 @@
         <v>131</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -14827,7 +14813,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -14844,7 +14830,7 @@
         <v>136</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/annotations_and_abbreviations.xlsx
+++ b/tests/integration_test_files/annotations_and_abbreviations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408A0529-2AA4-9341-B0D8-BAF451A5946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD43F4C-AE31-4A41-9E3F-37B3B2009222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51520" yWindow="500" windowWidth="48280" windowHeight="25700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51520" yWindow="500" windowWidth="48280" windowHeight="25700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="1255">
   <si>
     <t>name</t>
   </si>
@@ -3834,6 +3834,9 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
   </si>
 </sst>
 </file>
@@ -7460,59 +7463,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -14651,7 +14668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
